--- a/Industrials/John Deere.xlsx
+++ b/Industrials/John Deere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE90B7A6-6046-7043-A123-C8D14FEE2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578B972-E7DF-6345-845A-DEEBE7906D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1507,6 +1506,9 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,9 +1536,6 @@
     <xf numFmtId="9" fontId="18" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,46 +1570,46 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1738,11 +1737,11 @@
     <v>Powered by Refinitiv</v>
     <v>450</v>
     <v>345.55</v>
-    <v>1.0779000000000001</v>
-    <v>2.85</v>
-    <v>7.5860000000000007E-3</v>
-    <v>0.26</v>
-    <v>6.868E-4</v>
+    <v>1.0807</v>
+    <v>-8.39</v>
+    <v>-2.2703999999999998E-2</v>
+    <v>0.35</v>
+    <v>9.6909999999999997E-4</v>
     <v>USD</v>
     <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
     <v>82200</v>
@@ -1750,25 +1749,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One John Deere Place, MOLINE, IL, 61265-8098 US</v>
-    <v>381.88</v>
+    <v>369.89</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45205.99999710625</v>
+    <v>45226.999327892969</v>
     <v>0</v>
-    <v>372.32</v>
-    <v>109019700000</v>
+    <v>358.8</v>
+    <v>104011400000</v>
     <v>DEERE &amp; COMPANY</v>
     <v>DEERE &amp; COMPANY</v>
-    <v>373.44</v>
-    <v>11.191000000000001</v>
-    <v>375.69</v>
-    <v>378.54</v>
-    <v>378.8</v>
+    <v>369</v>
+    <v>10.6769</v>
+    <v>369.54</v>
+    <v>361.15</v>
+    <v>361.5</v>
     <v>288000600</v>
     <v>DE</v>
     <v>DEERE &amp; COMPANY (XNYS:DE)</v>
-    <v>1203467</v>
-    <v>1471105</v>
+    <v>1436436</v>
+    <v>1303460</v>
     <v>1958</v>
   </rv>
   <rv s="2">
@@ -1933,9 +1932,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13645,78 +13644,78 @@
       <c r="AD189" s="13"/>
     </row>
     <row r="190" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="124" t="s">
+      <c r="A190" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="125">
+      <c r="B190" s="116">
         <f t="shared" ref="B190:R190" si="9">B188/B2</f>
         <v>5.7847628757603797E-2</v>
       </c>
-      <c r="C190" s="125">
+      <c r="C190" s="116">
         <f t="shared" si="9"/>
         <v>3.6602004351884598E-2</v>
       </c>
-      <c r="D190" s="125">
+      <c r="D190" s="116">
         <f t="shared" si="9"/>
         <v>-1.2537841791095253E-2</v>
       </c>
-      <c r="E190" s="125">
+      <c r="E190" s="116">
         <f t="shared" si="9"/>
         <v>3.657031441812842E-2</v>
       </c>
-      <c r="F190" s="125">
+      <c r="F190" s="116">
         <f t="shared" si="9"/>
         <v>3.7042533432455518E-2</v>
       </c>
-      <c r="G190" s="125">
+      <c r="G190" s="116">
         <f t="shared" si="9"/>
         <v>4.9321654656329136E-2</v>
       </c>
-      <c r="H190" s="125">
+      <c r="H190" s="116">
         <f t="shared" si="9"/>
         <v>5.1450565090642317E-2</v>
       </c>
-      <c r="I190" s="125">
+      <c r="I190" s="116">
         <f t="shared" si="9"/>
         <v>8.0383805553420045E-3</v>
       </c>
-      <c r="J190" s="125">
+      <c r="J190" s="116">
         <f t="shared" si="9"/>
         <v>-1.1981122189520342E-2</v>
       </c>
-      <c r="K190" s="125">
+      <c r="K190" s="116">
         <f t="shared" si="9"/>
         <v>2.9272878292816384E-2</v>
       </c>
-      <c r="L190" s="125">
+      <c r="L190" s="116">
         <f t="shared" si="9"/>
         <v>0.16492491192903636</v>
       </c>
-      <c r="M190" s="125">
+      <c r="M190" s="116">
         <f t="shared" si="9"/>
         <v>0.13762522259661189</v>
       </c>
-      <c r="N190" s="125">
+      <c r="N190" s="116">
         <f t="shared" si="9"/>
         <v>3.3919686771186772E-2</v>
       </c>
-      <c r="O190" s="126">
+      <c r="O190" s="117">
         <f t="shared" si="9"/>
         <v>7.3291337419451028E-2</v>
       </c>
-      <c r="P190" s="125">
+      <c r="P190" s="116">
         <f t="shared" si="9"/>
         <v>0.20139209845509295</v>
       </c>
-      <c r="Q190" s="125">
+      <c r="Q190" s="116">
         <f t="shared" si="9"/>
         <v>-0.13570329937076475</v>
       </c>
-      <c r="R190" s="125">
+      <c r="R190" s="116">
         <f t="shared" si="9"/>
         <v>3.0333476978668842E-2</v>
       </c>
-      <c r="S190" s="125">
+      <c r="S190" s="116">
         <f>S188/S2</f>
         <v>0.16181500933256099</v>
       </c>
@@ -15696,7 +15695,7 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15707,16 +15706,16 @@
     <col min="16" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="117" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:21" s="120" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="117" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:21" s="120" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>109019700000</v>
+        <v>104011400000</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>201</v>
@@ -15743,23 +15742,23 @@
       </c>
       <c r="I3" s="48">
         <f>J14*(1+G3)/(G4-G3)</f>
-        <v>175528237861.02194</v>
+        <v>178207936065.69562</v>
       </c>
       <c r="J3" s="107" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="110" cm="1">
         <f t="array" ref="K3">_FV(A1,"Price")</f>
-        <v>378.54</v>
+        <v>361.15</v>
       </c>
       <c r="L3" s="74" t="s">
         <v>225</v>
       </c>
       <c r="M3" s="63"/>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="O3" s="121"/>
+      <c r="O3" s="124"/>
       <c r="P3" s="63"/>
       <c r="Q3" s="63"/>
       <c r="R3" s="63"/>
@@ -15791,30 +15790,30 @@
       </c>
       <c r="G4" s="53">
         <f>N25</f>
-        <v>6.4651960821287588E-2</v>
+        <v>6.3980532927055911E-2</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>206</v>
       </c>
       <c r="I4" s="54">
         <f>NPV(G4,F14,G14,H14,I14,(J14+I3))</f>
-        <v>160594424252.29688</v>
+        <v>163024738360.17136</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="108">
         <f>I5/I7</f>
-        <v>400.09494760252267</v>
+        <v>409.2552945647779</v>
       </c>
       <c r="L4" s="109" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="63"/>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="121" t="s">
         <v>227</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="122"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
@@ -15853,14 +15852,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>106148424252.29688</v>
+        <v>108578738360.17136</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="76">
         <f>K4/K3-1</f>
-        <v>5.694232472796168E-2</v>
+        <v>0.13320031722214565</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>218</v>
@@ -15883,7 +15882,7 @@
     <row r="6" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>1.9691797771074544</v>
+        <v>1.8787168325415891</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>246</v>
@@ -15936,14 +15935,14 @@
     <row r="7" spans="1:21" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="99">
         <f>O20/F12</f>
-        <v>10.947951395862622</v>
+        <v>10.44500903795943</v>
       </c>
       <c r="B7" s="100" t="s">
         <v>247</v>
       </c>
       <c r="C7" s="57">
         <f>F14/O21</f>
-        <v>4.0355167609126025E-2</v>
+        <v>4.1573624380856843E-2</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>248</v>
@@ -16229,10 +16228,10 @@
       </c>
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="63"/>
@@ -16281,7 +16280,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
@@ -16336,7 +16335,7 @@
       </c>
       <c r="O15" s="86" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0779000000000001</v>
+        <v>1.0807</v>
       </c>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
@@ -16401,7 +16400,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6869836000000006E-2</v>
+        <v>8.6868885000000007E-2</v>
       </c>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
@@ -16424,10 +16423,10 @@
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
       <c r="R18" s="63"/>
@@ -16482,7 +16481,7 @@
       </c>
       <c r="O20" s="87" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>109019700000</v>
+        <v>104011400000</v>
       </c>
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
@@ -16510,7 +16509,7 @@
       </c>
       <c r="O21" s="87">
         <f>O19+O20</f>
-        <v>170882700000</v>
+        <v>165874400000</v>
       </c>
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
@@ -16538,7 +16537,7 @@
       </c>
       <c r="O22" s="88">
         <f>(O19/O21)</f>
-        <v>0.36202026302252949</v>
+        <v>0.37295085920431365</v>
       </c>
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
@@ -16566,7 +16565,7 @@
       </c>
       <c r="O23" s="89">
         <f>O20/O21</f>
-        <v>0.63797973697747046</v>
+        <v>0.62704914079568641</v>
       </c>
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
@@ -16589,10 +16588,10 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="67"/>
-      <c r="N24" s="122" t="s">
+      <c r="N24" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="O24" s="123"/>
+      <c r="O24" s="126"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
       <c r="R24" s="63"/>
@@ -16614,11 +16613,11 @@
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
       <c r="M25" s="67"/>
-      <c r="N25" s="115">
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4651960821287588E-2</v>
-      </c>
-      <c r="O25" s="116"/>
+        <v>6.3980532927055911E-2</v>
+      </c>
+      <c r="O25" s="119"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
       <c r="R25" s="63"/>

--- a/Industrials/John Deere.xlsx
+++ b/Industrials/John Deere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578B972-E7DF-6345-845A-DEEBE7906D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB0DE2-CCC6-C942-8DD2-5A530FC207AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1578,10 +1578,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1598,7 +1598,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1737,11 +1737,9 @@
     <v>Powered by Refinitiv</v>
     <v>450</v>
     <v>345.55</v>
-    <v>1.0807</v>
-    <v>-8.39</v>
-    <v>-2.2703999999999998E-2</v>
-    <v>0.35</v>
-    <v>9.6909999999999997E-4</v>
+    <v>1.0740000000000001</v>
+    <v>8.64</v>
+    <v>2.3129E-2</v>
     <v>USD</v>
     <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
     <v>82200</v>
@@ -1749,25 +1747,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One John Deere Place, MOLINE, IL, 61265-8098 US</v>
-    <v>369.89</v>
+    <v>384.625</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45226.999327892969</v>
+    <v>45233.997969698437</v>
     <v>0</v>
-    <v>358.8</v>
-    <v>104011400000</v>
+    <v>377.48</v>
+    <v>110073800000</v>
     <v>DEERE &amp; COMPANY</v>
     <v>DEERE &amp; COMPANY</v>
-    <v>369</v>
-    <v>10.6769</v>
-    <v>369.54</v>
-    <v>361.15</v>
-    <v>361.5</v>
+    <v>379.5</v>
+    <v>11.299200000000001</v>
+    <v>373.56</v>
+    <v>382.2</v>
     <v>288000600</v>
     <v>DE</v>
     <v>DEERE &amp; COMPANY (XNYS:DE)</v>
-    <v>1436436</v>
-    <v>1303460</v>
+    <v>113</v>
+    <v>1243471</v>
     <v>1958</v>
   </rv>
   <rv s="2">
@@ -1799,8 +1796,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1821,7 +1816,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1838,7 +1832,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1849,16 +1843,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1924,19 +1915,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1981,9 +1966,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1991,9 +1973,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15695,7 +15674,7 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15715,7 +15694,7 @@
     <row r="3" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>104011400000</v>
+        <v>110073800000</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>201</v>
@@ -15742,14 +15721,14 @@
       </c>
       <c r="I3" s="48">
         <f>J14*(1+G3)/(G4-G3)</f>
-        <v>178207936065.69562</v>
+        <v>175061364528.6582</v>
       </c>
       <c r="J3" s="107" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="110" cm="1">
         <f t="array" ref="K3">_FV(A1,"Price")</f>
-        <v>361.15</v>
+        <v>382.2</v>
       </c>
       <c r="L3" s="74" t="s">
         <v>225</v>
@@ -15790,21 +15769,21 @@
       </c>
       <c r="G4" s="53">
         <f>N25</f>
-        <v>6.3980532927055911E-2</v>
+        <v>6.4771043691464789E-2</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>206</v>
       </c>
       <c r="I4" s="54">
         <f>NPV(G4,F14,G14,H14,I14,(J14+I3))</f>
-        <v>163024738360.17136</v>
+        <v>160170990890.58984</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="108">
         <f>I5/I7</f>
-        <v>409.2552945647779</v>
+        <v>398.49894135128835</v>
       </c>
       <c r="L4" s="109" t="s">
         <v>213</v>
@@ -15852,14 +15831,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>108578738360.17136</v>
+        <v>105724990890.58984</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="76">
         <f>K4/K3-1</f>
-        <v>0.13320031722214565</v>
+        <v>4.2645058480607956E-2</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>218</v>
@@ -15882,7 +15861,7 @@
     <row r="6" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>1.8787168325415891</v>
+        <v>1.988219569026245</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>246</v>
@@ -15935,14 +15914,14 @@
     <row r="7" spans="1:21" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="99">
         <f>O20/F12</f>
-        <v>10.44500903795943</v>
+        <v>11.053805985137577</v>
       </c>
       <c r="B7" s="100" t="s">
         <v>247</v>
       </c>
       <c r="C7" s="57">
         <f>F14/O21</f>
-        <v>4.1573624380856843E-2</v>
+        <v>4.0107760525960705E-2</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>248</v>
@@ -16280,7 +16259,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
@@ -16335,7 +16314,7 @@
       </c>
       <c r="O15" s="86" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0807</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
@@ -16400,7 +16379,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6868885000000007E-2</v>
+        <v>8.6843080000000017E-2</v>
       </c>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
@@ -16481,7 +16460,7 @@
       </c>
       <c r="O20" s="87" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>104011400000</v>
+        <v>110073800000</v>
       </c>
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
@@ -16509,7 +16488,7 @@
       </c>
       <c r="O21" s="87">
         <f>O19+O20</f>
-        <v>165874400000</v>
+        <v>171936800000</v>
       </c>
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
@@ -16537,7 +16516,7 @@
       </c>
       <c r="O22" s="88">
         <f>(O19/O21)</f>
-        <v>0.37295085920431365</v>
+        <v>0.35980081053038093</v>
       </c>
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
@@ -16565,7 +16544,7 @@
       </c>
       <c r="O23" s="89">
         <f>O20/O21</f>
-        <v>0.62704914079568641</v>
+        <v>0.64019918946961907</v>
       </c>
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
@@ -16615,7 +16594,7 @@
       <c r="M25" s="67"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.3980532927055911E-2</v>
+        <v>6.4771043691464789E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="63"/>

--- a/Industrials/John Deere.xlsx
+++ b/Industrials/John Deere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB0DE2-CCC6-C942-8DD2-5A530FC207AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8B1C6-65E0-3C4C-895C-5AC522B24ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5579999999999996E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1737,9 +1737,11 @@
     <v>Powered by Refinitiv</v>
     <v>450</v>
     <v>345.55</v>
-    <v>1.0740000000000001</v>
-    <v>8.64</v>
-    <v>2.3129E-2</v>
+    <v>1.0651999999999999</v>
+    <v>0.39</v>
+    <v>1.0560000000000001E-3</v>
+    <v>-1.39</v>
+    <v>-3.761E-3</v>
     <v>USD</v>
     <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
     <v>82200</v>
@@ -1747,24 +1749,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One John Deere Place, MOLINE, IL, 61265-8098 US</v>
-    <v>384.625</v>
+    <v>374.17</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45233.997969698437</v>
+    <v>45239.913433992966</v>
     <v>0</v>
-    <v>377.48</v>
-    <v>110073800000</v>
+    <v>367.77</v>
+    <v>106491101856</v>
     <v>DEERE &amp; COMPANY</v>
     <v>DEERE &amp; COMPANY</v>
-    <v>379.5</v>
-    <v>11.299200000000001</v>
-    <v>373.56</v>
-    <v>382.2</v>
+    <v>373.63</v>
+    <v>10.927300000000001</v>
+    <v>369.37</v>
+    <v>369.76</v>
+    <v>368.23</v>
     <v>288000600</v>
     <v>DE</v>
     <v>DEERE &amp; COMPANY (XNYS:DE)</v>
-    <v>113</v>
-    <v>1243471</v>
+    <v>1094908</v>
+    <v>1181205</v>
     <v>1958</v>
   </rv>
   <rv s="2">
@@ -1796,6 +1799,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1816,6 +1821,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1832,7 +1838,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1843,13 +1849,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1915,13 +1924,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1966,6 +1981,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1973,6 +1991,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15674,7 +15695,7 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15694,7 +15715,7 @@
     <row r="3" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>110073800000</v>
+        <v>106491101856</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>201</v>
@@ -15721,14 +15742,14 @@
       </c>
       <c r="I3" s="48">
         <f>J14*(1+G3)/(G4-G3)</f>
-        <v>175061364528.6582</v>
+        <v>177692550836.14401</v>
       </c>
       <c r="J3" s="107" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="110" cm="1">
         <f t="array" ref="K3">_FV(A1,"Price")</f>
-        <v>382.2</v>
+        <v>369.76</v>
       </c>
       <c r="L3" s="74" t="s">
         <v>225</v>
@@ -15769,21 +15790,21 @@
       </c>
       <c r="G4" s="53">
         <f>N25</f>
-        <v>6.4771043691464789E-2</v>
+        <v>6.4108095489199074E-2</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>206</v>
       </c>
       <c r="I4" s="54">
         <f>NPV(G4,F14,G14,H14,I14,(J14+I3))</f>
-        <v>160170990890.58984</v>
+        <v>162557323993.64856</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="108">
         <f>I5/I7</f>
-        <v>398.49894135128835</v>
+        <v>407.49351498302821</v>
       </c>
       <c r="L4" s="109" t="s">
         <v>213</v>
@@ -15831,14 +15852,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>105724990890.58984</v>
+        <v>108111323993.64856</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="76">
         <f>K4/K3-1</f>
-        <v>4.2645058480607956E-2</v>
+        <v>0.10204866665682655</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>218</v>
@@ -15861,7 +15882,7 @@
     <row r="6" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>1.988219569026245</v>
+        <v>1.9235067076567383</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>246</v>
@@ -15914,14 +15935,14 @@
     <row r="7" spans="1:21" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="99">
         <f>O20/F12</f>
-        <v>11.053805985137577</v>
+        <v>10.694025090982125</v>
       </c>
       <c r="B7" s="100" t="s">
         <v>247</v>
       </c>
       <c r="C7" s="57">
         <f>F14/O21</f>
-        <v>4.0107760525960705E-2</v>
+        <v>4.0961282938614854E-2</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>248</v>
@@ -16259,7 +16280,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5579999999999996E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
@@ -16314,7 +16335,7 @@
       </c>
       <c r="O15" s="86" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0740000000000001</v>
+        <v>1.0651999999999999</v>
       </c>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
@@ -16379,7 +16400,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6843080000000017E-2</v>
+        <v>8.6537584000000001E-2</v>
       </c>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
@@ -16460,7 +16481,7 @@
       </c>
       <c r="O20" s="87" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>110073800000</v>
+        <v>106491101856</v>
       </c>
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
@@ -16488,7 +16509,7 @@
       </c>
       <c r="O21" s="87">
         <f>O19+O20</f>
-        <v>171936800000</v>
+        <v>168354101856</v>
       </c>
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
@@ -16516,7 +16537,7 @@
       </c>
       <c r="O22" s="88">
         <f>(O19/O21)</f>
-        <v>0.35980081053038093</v>
+        <v>0.36745763434331941</v>
       </c>
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
@@ -16544,7 +16565,7 @@
       </c>
       <c r="O23" s="89">
         <f>O20/O21</f>
-        <v>0.64019918946961907</v>
+        <v>0.63254236565668054</v>
       </c>
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
@@ -16594,7 +16615,7 @@
       <c r="M25" s="67"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4771043691464789E-2</v>
+        <v>6.4108095489199074E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="63"/>

--- a/Industrials/John Deere.xlsx
+++ b/Industrials/John Deere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8B1C6-65E0-3C4C-895C-5AC522B24ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5873C-F3AD-2347-9F9A-7B99C69B058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="253">
   <si>
     <t>2010 Y</t>
   </si>
@@ -679,9 +679,6 @@
     <t>ROIC</t>
   </si>
   <si>
-    <t>Market Cap (m)</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -718,27 +715,18 @@
     <t>Intrinsic Value</t>
   </si>
   <si>
-    <t>Total Shares (m)</t>
-  </si>
-  <si>
     <t>3Y FCF CAGR</t>
   </si>
   <si>
     <t>Total Debt</t>
   </si>
   <si>
-    <t>Avg Share Dilution</t>
-  </si>
-  <si>
     <t>Upside / Downside</t>
   </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">FCF </t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -820,13 +808,31 @@
     <t>Forward P/E</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>ROE</t>
   </si>
   <si>
     <t>Debt to Equity</t>
+  </si>
+  <si>
+    <t>YoY Share Dilution</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Total Shares</t>
+  </si>
+  <si>
+    <t>Fwd FCF Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -837,9 +843,9 @@
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -946,24 +952,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -977,14 +965,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -993,8 +993,25 @@
       <b/>
       <i/>
       <u/>
-      <sz val="12"/>
+      <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1080,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1125,23 +1142,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1149,17 +1166,78 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1167,22 +1245,119 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,32 +1367,28 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1296,245 +1467,265 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="10" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1598,7 +1789,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1737,11 +1928,11 @@
     <v>Powered by Refinitiv</v>
     <v>450</v>
     <v>345.55</v>
-    <v>1.0651999999999999</v>
-    <v>0.39</v>
-    <v>1.0560000000000001E-3</v>
-    <v>-1.39</v>
-    <v>-3.761E-3</v>
+    <v>1.0248999999999999</v>
+    <v>3.92</v>
+    <v>1.0888E-2</v>
+    <v>0.91</v>
+    <v>2.5000000000000001E-3</v>
     <v>USD</v>
     <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
     <v>82200</v>
@@ -1749,25 +1940,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One John Deere Place, MOLINE, IL, 61265-8098 US</v>
-    <v>374.17</v>
+    <v>368.36</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45239.913433992966</v>
+    <v>45259.910658969529</v>
     <v>0</v>
-    <v>367.77</v>
-    <v>106491101856</v>
+    <v>359.65</v>
+    <v>104814938364</v>
     <v>DEERE &amp; COMPANY</v>
     <v>DEERE &amp; COMPANY</v>
-    <v>373.63</v>
-    <v>10.927300000000001</v>
-    <v>369.37</v>
-    <v>369.76</v>
-    <v>368.23</v>
+    <v>362.74</v>
+    <v>10.504</v>
+    <v>360.02</v>
+    <v>363.94</v>
+    <v>364.85</v>
     <v>288000600</v>
     <v>DE</v>
     <v>DEERE &amp; COMPANY (XNYS:DE)</v>
-    <v>1094908</v>
-    <v>1181205</v>
+    <v>2263455</v>
+    <v>1630858</v>
     <v>1958</v>
   </rv>
   <rv s="2">
@@ -1932,9 +2123,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2379,9 +2570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K167" sqref="K167"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13644,78 +13835,78 @@
       <c r="AD189" s="13"/>
     </row>
     <row r="190" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="115" t="s">
+      <c r="A190" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="116">
+      <c r="B190" s="50">
         <f t="shared" ref="B190:R190" si="9">B188/B2</f>
         <v>5.7847628757603797E-2</v>
       </c>
-      <c r="C190" s="116">
+      <c r="C190" s="50">
         <f t="shared" si="9"/>
         <v>3.6602004351884598E-2</v>
       </c>
-      <c r="D190" s="116">
+      <c r="D190" s="50">
         <f t="shared" si="9"/>
         <v>-1.2537841791095253E-2</v>
       </c>
-      <c r="E190" s="116">
+      <c r="E190" s="50">
         <f t="shared" si="9"/>
         <v>3.657031441812842E-2</v>
       </c>
-      <c r="F190" s="116">
+      <c r="F190" s="50">
         <f t="shared" si="9"/>
         <v>3.7042533432455518E-2</v>
       </c>
-      <c r="G190" s="116">
+      <c r="G190" s="50">
         <f t="shared" si="9"/>
         <v>4.9321654656329136E-2</v>
       </c>
-      <c r="H190" s="116">
+      <c r="H190" s="50">
         <f t="shared" si="9"/>
         <v>5.1450565090642317E-2</v>
       </c>
-      <c r="I190" s="116">
+      <c r="I190" s="50">
         <f t="shared" si="9"/>
         <v>8.0383805553420045E-3</v>
       </c>
-      <c r="J190" s="116">
+      <c r="J190" s="50">
         <f t="shared" si="9"/>
         <v>-1.1981122189520342E-2</v>
       </c>
-      <c r="K190" s="116">
+      <c r="K190" s="50">
         <f t="shared" si="9"/>
         <v>2.9272878292816384E-2</v>
       </c>
-      <c r="L190" s="116">
+      <c r="L190" s="50">
         <f t="shared" si="9"/>
         <v>0.16492491192903636</v>
       </c>
-      <c r="M190" s="116">
+      <c r="M190" s="50">
         <f t="shared" si="9"/>
         <v>0.13762522259661189</v>
       </c>
-      <c r="N190" s="116">
+      <c r="N190" s="50">
         <f t="shared" si="9"/>
         <v>3.3919686771186772E-2</v>
       </c>
-      <c r="O190" s="117">
+      <c r="O190" s="51">
         <f t="shared" si="9"/>
         <v>7.3291337419451028E-2</v>
       </c>
-      <c r="P190" s="116">
+      <c r="P190" s="50">
         <f t="shared" si="9"/>
         <v>0.20139209845509295</v>
       </c>
-      <c r="Q190" s="116">
+      <c r="Q190" s="50">
         <f t="shared" si="9"/>
         <v>-0.13570329937076475</v>
       </c>
-      <c r="R190" s="116">
+      <c r="R190" s="50">
         <f t="shared" si="9"/>
         <v>3.0333476978668842E-2</v>
       </c>
-      <c r="S190" s="116">
+      <c r="S190" s="50">
         <f>S188/S2</f>
         <v>0.16181500933256099</v>
       </c>
@@ -15695,2225 +15886,2210 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="120" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:21" s="124" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="120" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" cm="1">
+    <row r="2" spans="1:21" s="124" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>106491101856</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="45">
+        <v>104814938364</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="54">
         <f>Financials!O8*0.01</f>
         <v>0.36220000000000002</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="94">
+      <c r="D3" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="54">
         <f>SUM(C11:E11)/3</f>
         <v>0.11192064846453571</v>
       </c>
-      <c r="F3" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0.02</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="56">
+        <f>AVERAGE(Financials!K129:O129)</f>
+        <v>-1.6342066234965081E-2</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="57">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>156860024435.88245</v>
+      </c>
+      <c r="J3" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="48">
-        <f>J14*(1+G3)/(G4-G3)</f>
-        <v>177692550836.14401</v>
-      </c>
-      <c r="J3" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="110" cm="1">
-        <f t="array" ref="K3">_FV(A1,"Price")</f>
-        <v>369.76</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-    </row>
-    <row r="4" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55">
+      <c r="K3" s="59">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>1.3423659088686271E-2</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="127" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="128"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-54446000000</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="63">
         <f>Financials!O17*0.01</f>
         <v>0.2293</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="93">
+      <c r="D4" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="63">
         <f>SUM(C13:E13)/3</f>
         <v>0.40304363227735029</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="53">
-        <f>N25</f>
-        <v>6.4108095489199074E-2</v>
-      </c>
-      <c r="H4" s="52" t="s">
+      <c r="F4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="65">
+        <f>A5*(1+(5*G3))</f>
+        <v>264467975.59545159</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="48">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>141566964735.11484</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="54">
-        <f>NPV(G4,F14,G14,H14,I14,(J14+I3))</f>
-        <v>162557323993.64856</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="108">
-        <f>I5/I7</f>
-        <v>407.49351498302821</v>
-      </c>
-      <c r="L4" s="109" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="121" t="s">
-        <v>227</v>
-      </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-    </row>
-    <row r="5" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" cm="1">
+      <c r="K4" s="47" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>1.0888E-2</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="126"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+    </row>
+    <row r="5" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>288000600</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="95">
-        <f>Financials!O34*0.01</f>
-        <v>0.16640000000000002</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="93">
-        <f>SUM(C15:E15)/3</f>
+      <c r="B5" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="63">
+        <f>F14</f>
+        <v>0.17955008749300957</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="63">
+        <f>SUM(C16:E16)/3</f>
         <v>1.1417071798269129</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="54">
+      <c r="F5" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="65">
         <f>Financials!O56</f>
         <v>7417000000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="48">
+        <f>I4+G5-G6</f>
+        <v>87120964735.114838</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="54">
-        <f>I4+G5-G6</f>
-        <v>108111323993.64856</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="76">
-        <f>K4/K3-1</f>
-        <v>0.10204866665682655</v>
-      </c>
-      <c r="L5" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="O5" s="81">
-        <f>Financials!O21</f>
+      <c r="K5" s="68" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>363.94</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="71">
+        <f>Financials!O20</f>
         <v>2019000000</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-    </row>
-    <row r="6" spans="1:21" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+    </row>
+    <row r="6" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72">
         <f>O20/F10</f>
-        <v>1.9235067076567383</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="51">
-        <f>Financials!O190</f>
-        <v>7.3291337419451028E-2</v>
-      </c>
-      <c r="D6" s="96" t="s">
+        <v>1.8908400837768116</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="63">
+        <f>F17</f>
+        <v>0.12350044197499685</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="63">
         <f>Financials!O33/Financials!O126</f>
         <v>0.43378541810642707</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="98">
+      <c r="F6" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="65">
         <f>Financials!O96+Financials!O105</f>
         <v>61863000000</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="I6" s="51">
-        <f>SUM(Financials!K129:N129)/4</f>
-        <v>-1.5758658340080917E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="O6" s="82">
+      <c r="H6" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="47">
+        <f>N25</f>
+        <v>7.0720379705487474E-2</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="73">
+        <f>I5/G4</f>
+        <v>329.41971344152859</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" s="71">
         <f>Financials!O96</f>
         <v>23751000000</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-    </row>
-    <row r="7" spans="1:21" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99">
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+    </row>
+    <row r="7" spans="1:21" s="43" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>10.694025090982125</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="57">
-        <f>F14/O21</f>
-        <v>4.0961282938614854E-2</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="101">
+        <v>10.530989486988847</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="77">
+        <f>F15/A3</f>
+        <v>6.5315117356891411E-2</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="78">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.12212256660589307</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="79">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.6720369730476849</v>
       </c>
-      <c r="H7" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="105">
-        <f>A5*(1+(5*I6))</f>
-        <v>265308084.71430844</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="82">
+      <c r="H7" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="81">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="83">
+        <f>K6/K5-1</f>
+        <v>-9.4851586960684187E-2</v>
+      </c>
+      <c r="L7" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="71">
         <f>Financials!O105</f>
         <v>38112000000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="N8" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="O8" s="83">
+    <row r="8" spans="1:21" s="43" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="N8" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="87">
         <f>O5/(O6+O7)</f>
         <v>3.2636632559041756E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="114">
+    <row r="9" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="89">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="89">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="90">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="91">
         <v>2023</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="92">
         <v>2024</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="92">
         <v>2025</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="92">
         <v>2026</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="93">
         <v>2027</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="O9" s="82">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="O9" s="71">
         <f>Financials!O25</f>
         <v>2807000000</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-    </row>
-    <row r="10" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="61">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+    </row>
+    <row r="10" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="95">
         <v>38379000000</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="95">
         <v>34722000000</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="95">
         <v>43033000000</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="96">
         <v>51282000000</v>
       </c>
-      <c r="F10" s="73">
-        <v>55363000000</v>
-      </c>
-      <c r="G10" s="61">
-        <v>56843000000</v>
-      </c>
-      <c r="H10" s="61">
-        <v>55997000000</v>
-      </c>
-      <c r="I10" s="61">
-        <v>55997000000</v>
-      </c>
-      <c r="J10" s="61">
-        <v>55997000000</v>
-      </c>
-      <c r="K10" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="O10" s="82">
+      <c r="F10" s="95">
+        <v>55433000000</v>
+      </c>
+      <c r="G10" s="95">
+        <v>56508000000</v>
+      </c>
+      <c r="H10" s="95">
+        <v>56800000000</v>
+      </c>
+      <c r="I10" s="95">
+        <v>58000000000</v>
+      </c>
+      <c r="J10" s="96">
+        <v>60000000000</v>
+      </c>
+      <c r="K10" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10"/>
+      <c r="N10" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="O10" s="71">
         <f>Financials!O24</f>
         <v>12833000000</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-    </row>
-    <row r="11" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+    </row>
+    <row r="11" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-9.5286484796373028E-2</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="99">
         <f t="shared" si="0"/>
         <v>0.23935833189332412</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="99">
         <f t="shared" si="0"/>
         <v>0.19169009829665606</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="100">
         <f t="shared" si="0"/>
-        <v>7.9579579579579507E-2</v>
-      </c>
-      <c r="G11" s="62">
+        <v>8.0944580944581013E-2</v>
+      </c>
+      <c r="G11" s="99">
         <f t="shared" si="0"/>
-        <v>2.6732655383559401E-2</v>
-      </c>
-      <c r="H11" s="62">
+        <v>1.9392780473725058E-2</v>
+      </c>
+      <c r="H11" s="99">
         <f t="shared" si="0"/>
-        <v>-1.4883099062329541E-2</v>
-      </c>
-      <c r="I11" s="62">
+        <v>5.1674099242584592E-3</v>
+      </c>
+      <c r="I11" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="62">
+        <v>2.1126760563380254E-2</v>
+      </c>
+      <c r="J11" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="71">
-        <f>SUM(F11:J11)/5</f>
-        <v>1.8285827180161873E-2</v>
-      </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="O11" s="85">
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="K11" s="101">
+        <f>AVERAGE(F11:J11)</f>
+        <v>3.22228581053269E-2</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="102">
         <f>O9/O10</f>
         <v>0.21873295410270396</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-    </row>
-    <row r="12" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="95">
         <v>3253000000</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="95">
         <v>2751000000</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="95">
         <v>5963000000</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="95">
         <v>7131000000</v>
       </c>
-      <c r="F12" s="73">
-        <v>9958000000</v>
-      </c>
-      <c r="G12" s="61">
-        <v>9484000000</v>
-      </c>
-      <c r="H12" s="61">
-        <v>9295000000</v>
-      </c>
-      <c r="I12" s="61">
+      <c r="F12" s="103">
+        <v>9953000000</v>
+      </c>
+      <c r="G12" s="95">
+        <v>9500000000</v>
+      </c>
+      <c r="H12" s="95">
+        <v>9400000000</v>
+      </c>
+      <c r="I12" s="95">
         <v>8961000000</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="96">
         <v>9135000000</v>
       </c>
-      <c r="K12" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="O12" s="91">
+      <c r="K12" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="O12" s="102">
         <f>O8*(1-O11)</f>
         <v>2.5497925507438061E-2</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-    </row>
-    <row r="13" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62">
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+    </row>
+    <row r="13" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.15431909007070399</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="99">
         <f t="shared" si="1"/>
         <v>1.1675754271174119</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="99">
         <f t="shared" si="1"/>
         <v>0.19587455978534285</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="100">
         <f t="shared" si="1"/>
-        <v>0.39643808722479323</v>
-      </c>
-      <c r="G13" s="62">
+        <v>0.39573692329266574</v>
+      </c>
+      <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>-4.7599919662582812E-2</v>
-      </c>
-      <c r="H13" s="62">
+        <v>-4.5513915402391247E-2</v>
+      </c>
+      <c r="H13" s="99">
         <f t="shared" si="1"/>
-        <v>-1.9928300295234069E-2</v>
-      </c>
-      <c r="I13" s="62">
+        <v>-1.0526315789473717E-2</v>
+      </c>
+      <c r="I13" s="99">
         <f t="shared" si="1"/>
-        <v>-3.5933297471758996E-2</v>
-      </c>
-      <c r="J13" s="62">
+        <v>-4.6702127659574488E-2</v>
+      </c>
+      <c r="J13" s="101">
         <f t="shared" si="1"/>
         <v>1.9417475728155331E-2</v>
       </c>
-      <c r="K13" s="71">
-        <f>SUM(F13:J13)/5</f>
-        <v>6.2478809104674536E-2</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="121" t="s">
+      <c r="K13" s="101">
+        <f>AVERAGE(F13:J13)</f>
+        <v>6.2482408033876322E-2</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" s="126"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+    </row>
+    <row r="14" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="106">
+        <f>B12/B10</f>
+        <v>8.4759894734099381E-2</v>
+      </c>
+      <c r="C14" s="106">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>7.922930706756523E-2</v>
+      </c>
+      <c r="D14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.13856807566286339</v>
+      </c>
+      <c r="E14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.13905463905463905</v>
+      </c>
+      <c r="F14" s="107">
+        <f t="shared" si="2"/>
+        <v>0.17955008749300957</v>
+      </c>
+      <c r="G14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.16811778863169816</v>
+      </c>
+      <c r="H14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.16549295774647887</v>
+      </c>
+      <c r="I14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.1545</v>
+      </c>
+      <c r="J14" s="108">
+        <f t="shared" si="2"/>
+        <v>0.15225</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="102">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="95">
+        <v>1123463796</v>
+      </c>
+      <c r="C15" s="95">
+        <v>5726522792</v>
+      </c>
+      <c r="D15" s="95">
+        <v>5922426204</v>
+      </c>
+      <c r="E15" s="95">
+        <v>1739469377</v>
+      </c>
+      <c r="F15" s="103">
+        <v>6846000000</v>
+      </c>
+      <c r="G15" s="95">
+        <v>7200000000</v>
+      </c>
+      <c r="H15" s="95">
+        <v>7400000000</v>
+      </c>
+      <c r="I15" s="95">
+        <v>7700000000</v>
+      </c>
+      <c r="J15" s="96">
+        <v>7800000000</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="109">
+        <f>1.33</f>
+        <v>1.33</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+    </row>
+    <row r="16" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="110"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
+        <v>4.0972027869423213</v>
+      </c>
+      <c r="D16" s="99">
+        <f t="shared" si="3"/>
+        <v>3.4209837123791553E-2</v>
+      </c>
+      <c r="E16" s="99">
+        <f t="shared" si="3"/>
+        <v>-0.70629108458537404</v>
+      </c>
+      <c r="F16" s="100">
+        <f t="shared" si="3"/>
+        <v>2.935682967760576</v>
+      </c>
+      <c r="G16" s="99">
+        <f t="shared" si="3"/>
+        <v>5.1709027169149824E-2</v>
+      </c>
+      <c r="H16" s="99">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="I16" s="99">
+        <f t="shared" si="3"/>
+        <v>4.0540540540540571E-2</v>
+      </c>
+      <c r="J16" s="101">
+        <f t="shared" si="3"/>
+        <v>1.298701298701288E-2</v>
+      </c>
+      <c r="K16" s="101">
+        <f>AVERAGE(G16:J16)</f>
+        <v>3.3253589618620238E-2</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="O16" s="102">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="106">
+        <f>B15/B10</f>
+        <v>2.9272878292816384E-2</v>
+      </c>
+      <c r="C17" s="106">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.16492491192903636</v>
+      </c>
+      <c r="D17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.13762522259661189</v>
+      </c>
+      <c r="E17" s="108">
+        <f t="shared" si="4"/>
+        <v>3.3919686771186772E-2</v>
+      </c>
+      <c r="F17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.12350044197499685</v>
+      </c>
+      <c r="G17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.12741558717349755</v>
+      </c>
+      <c r="H17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.13028169014084506</v>
+      </c>
+      <c r="I17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.13275862068965516</v>
+      </c>
+      <c r="J17" s="108">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+      <c r="K17" s="108"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.7411200000000003E-2</v>
+      </c>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="114">
+        <v>6.1767814674535362E-2</v>
+      </c>
+      <c r="C18" s="114">
+        <v>5.4867496861321301E-2</v>
+      </c>
+      <c r="D18" s="114">
+        <v>8.5315501301498967E-2</v>
+      </c>
+      <c r="E18" s="114">
+        <v>9.2317593002657225E-2</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-    </row>
-    <row r="14" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="61">
-        <v>1123463796</v>
-      </c>
-      <c r="C14" s="61">
-        <v>5726522792</v>
-      </c>
-      <c r="D14" s="61">
-        <v>5922426204</v>
-      </c>
-      <c r="E14" s="61">
-        <v>1739469377</v>
-      </c>
-      <c r="F14" s="73">
-        <v>6896000000</v>
-      </c>
-      <c r="G14" s="61">
-        <v>7495000000</v>
-      </c>
-      <c r="H14" s="61">
-        <v>9150000000</v>
-      </c>
-      <c r="I14" s="61">
-        <v>7684000000</v>
-      </c>
-      <c r="J14" s="61">
-        <v>7684000000</v>
-      </c>
-      <c r="K14" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="O14" s="85">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-    </row>
-    <row r="15" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
-        <v>4.0972027869423213</v>
-      </c>
-      <c r="D15" s="62">
-        <f t="shared" si="2"/>
-        <v>3.4209837123791553E-2</v>
-      </c>
-      <c r="E15" s="62">
-        <f t="shared" si="2"/>
-        <v>-0.70629108458537404</v>
-      </c>
-      <c r="F15" s="71">
-        <f t="shared" si="2"/>
-        <v>2.9644273657138376</v>
-      </c>
-      <c r="G15" s="62">
-        <f t="shared" si="2"/>
-        <v>8.6861948955916368E-2</v>
-      </c>
-      <c r="H15" s="62">
-        <f t="shared" si="2"/>
-        <v>0.22081387591727819</v>
-      </c>
-      <c r="I15" s="62">
-        <f t="shared" si="2"/>
-        <v>-0.16021857923497262</v>
-      </c>
-      <c r="J15" s="62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="71">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.62237692227041186</v>
-      </c>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="O15" s="86" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0651999999999999</v>
-      </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-    </row>
-    <row r="16" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="92">
-        <v>5.4017932798225206E-2</v>
-      </c>
-      <c r="C16" s="92">
-        <v>4.8870419342652058E-2</v>
-      </c>
-      <c r="D16" s="92">
-        <v>8.2957553894044744E-2</v>
-      </c>
-      <c r="E16" s="92">
-        <v>9.5843271358372367E-2</v>
-      </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="O16" s="85">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-    </row>
-    <row r="17" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="O17" s="84">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6537584000000001E-2</v>
-      </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-    </row>
-    <row r="18" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-    </row>
-    <row r="19" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="O19" s="87">
+      <c r="O18" s="126"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" s="118">
         <f>O6+O7</f>
         <v>61863000000</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-    </row>
-    <row r="20" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="O20" s="87" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>106491101856</v>
-      </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-    </row>
-    <row r="21" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="O21" s="87">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+    </row>
+    <row r="20" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="O20" s="118">
+        <f>A3</f>
+        <v>104814938364</v>
+      </c>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="131" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Machinery, Equipment &amp; Components</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1958</v>
+      </c>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="118">
         <f>O19+O20</f>
-        <v>168354101856</v>
-      </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-    </row>
-    <row r="22" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="79" t="s">
+        <v>166677938364</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+    </row>
+    <row r="22" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="131" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="O22" s="120">
+        <f>(O19/O21)</f>
+        <v>0.37115289886115788</v>
+      </c>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="O23" s="121">
+        <f>O20/O21</f>
+        <v>0.62884710113884212</v>
+      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+    </row>
+    <row r="24" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="O22" s="88">
-        <f>(O19/O21)</f>
-        <v>0.36745763434331941</v>
-      </c>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-    </row>
-    <row r="23" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" s="89">
-        <f>O20/O21</f>
-        <v>0.63254236565668054</v>
-      </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-    </row>
-    <row r="24" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="O24" s="126"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-    </row>
-    <row r="25" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="118">
+      <c r="O24" s="130"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+    </row>
+    <row r="25" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="122">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4108095489199074E-2</v>
-      </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-    </row>
-    <row r="26" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-    </row>
-    <row r="27" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-    </row>
-    <row r="28" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-    </row>
-    <row r="29" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-    </row>
-    <row r="30" spans="1:21" s="68" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-    </row>
-    <row r="31" spans="1:21" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-    </row>
-    <row r="32" spans="1:21" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-    </row>
-    <row r="33" spans="1:25" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
+        <v>7.0720379705487474E-2</v>
+      </c>
+      <c r="O25" s="123"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+    </row>
+    <row r="26" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+    </row>
+    <row r="27" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+    </row>
+    <row r="28" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+    </row>
+    <row r="29" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+    </row>
+    <row r="30" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="131"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+    </row>
+    <row r="31" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+    </row>
+    <row r="32" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+    </row>
+    <row r="33" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="45"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="S63" s="43"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="S64" s="43"/>
     </row>
     <row r="65" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="S65" s="43"/>
     </row>
     <row r="66" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="S66" s="43"/>
     </row>
     <row r="67" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="S67" s="43"/>
     </row>
     <row r="68" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="S68" s="43"/>
     </row>
     <row r="69" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="S69" s="43"/>
     </row>
     <row r="70" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="S70" s="43"/>
     </row>
     <row r="71" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="S71" s="43"/>
     </row>
     <row r="72" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O72" s="63"/>
-      <c r="P72" s="63"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="63"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="S72" s="43"/>
     </row>
     <row r="73" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="S73" s="43"/>
     </row>
     <row r="74" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O74" s="63"/>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="S74" s="43"/>
     </row>
     <row r="75" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="S75" s="43"/>
     </row>
     <row r="76" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="S76" s="43"/>
     </row>
     <row r="77" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="S77" s="43"/>
     </row>
     <row r="78" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="S78" s="43"/>
     </row>
     <row r="79" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="S79" s="43"/>
     </row>
     <row r="80" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
-      <c r="S80" s="63"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="S80" s="43"/>
     </row>
     <row r="81" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="63"/>
-      <c r="R81" s="63"/>
-      <c r="S81" s="63"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="S81" s="43"/>
     </row>
     <row r="82" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
-      <c r="Q82" s="63"/>
-      <c r="R82" s="63"/>
-      <c r="S82" s="63"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="43"/>
+      <c r="S82" s="43"/>
     </row>
     <row r="83" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
-      <c r="Q83" s="63"/>
-      <c r="R83" s="63"/>
-      <c r="S83" s="63"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="S83" s="43"/>
     </row>
     <row r="84" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
-      <c r="Q84" s="63"/>
-      <c r="R84" s="63"/>
-      <c r="S84" s="63"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="S84" s="43"/>
     </row>
     <row r="85" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
-      <c r="Q85" s="63"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="63"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="S85" s="43"/>
     </row>
     <row r="86" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
-      <c r="Q86" s="63"/>
-      <c r="R86" s="63"/>
-      <c r="S86" s="63"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="S86" s="43"/>
     </row>
     <row r="87" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O87" s="63"/>
-      <c r="P87" s="63"/>
-      <c r="Q87" s="63"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="63"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="S87" s="43"/>
     </row>
     <row r="88" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="63"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="S88" s="43"/>
     </row>
     <row r="89" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="63"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="S89" s="43"/>
     </row>
     <row r="90" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O90" s="63"/>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="63"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="S90" s="43"/>
     </row>
     <row r="91" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O91" s="63"/>
-      <c r="P91" s="63"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="63"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="S91" s="43"/>
     </row>
     <row r="92" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
-      <c r="Q92" s="63"/>
-      <c r="R92" s="63"/>
-      <c r="S92" s="63"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="S92" s="43"/>
     </row>
     <row r="93" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="63"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="S93" s="43"/>
     </row>
     <row r="94" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O94" s="63"/>
-      <c r="P94" s="63"/>
-      <c r="Q94" s="63"/>
-      <c r="R94" s="63"/>
-      <c r="S94" s="63"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="S94" s="43"/>
     </row>
     <row r="95" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O95" s="63"/>
-      <c r="P95" s="63"/>
-      <c r="Q95" s="63"/>
-      <c r="R95" s="63"/>
-      <c r="S95" s="63"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="S95" s="43"/>
     </row>
     <row r="96" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
-      <c r="Q96" s="63"/>
-      <c r="R96" s="63"/>
-      <c r="S96" s="63"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="S96" s="43"/>
     </row>
     <row r="97" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O97" s="63"/>
-      <c r="P97" s="63"/>
-      <c r="Q97" s="63"/>
-      <c r="R97" s="63"/>
-      <c r="S97" s="63"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="S97" s="43"/>
     </row>
     <row r="98" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O98" s="63"/>
-      <c r="P98" s="63"/>
-      <c r="Q98" s="63"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="63"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="S98" s="43"/>
     </row>
     <row r="99" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O99" s="63"/>
-      <c r="P99" s="63"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="S99" s="43"/>
     </row>
     <row r="100" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O100" s="63"/>
-      <c r="P100" s="63"/>
-      <c r="Q100" s="63"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="63"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="S100" s="43"/>
     </row>
     <row r="101" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O101" s="63"/>
-      <c r="P101" s="63"/>
-      <c r="Q101" s="63"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="63"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="S101" s="43"/>
     </row>
     <row r="102" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O102" s="63"/>
-      <c r="P102" s="63"/>
-      <c r="Q102" s="63"/>
-      <c r="R102" s="63"/>
-      <c r="S102" s="63"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="S102" s="43"/>
     </row>
     <row r="103" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O103" s="63"/>
-      <c r="P103" s="63"/>
-      <c r="Q103" s="63"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="63"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="S103" s="43"/>
     </row>
     <row r="104" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O104" s="63"/>
-      <c r="P104" s="63"/>
-      <c r="Q104" s="63"/>
-      <c r="R104" s="63"/>
-      <c r="S104" s="63"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="S104" s="43"/>
     </row>
     <row r="105" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O105" s="63"/>
-      <c r="P105" s="63"/>
-      <c r="Q105" s="63"/>
-      <c r="R105" s="63"/>
-      <c r="S105" s="63"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="S105" s="43"/>
     </row>
     <row r="106" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O106" s="63"/>
-      <c r="P106" s="63"/>
-      <c r="Q106" s="63"/>
-      <c r="R106" s="63"/>
-      <c r="S106" s="63"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="43"/>
+      <c r="S106" s="43"/>
     </row>
     <row r="107" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O107" s="63"/>
-      <c r="P107" s="63"/>
-      <c r="Q107" s="63"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="63"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="S107" s="43"/>
     </row>
     <row r="108" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O108" s="63"/>
-      <c r="P108" s="63"/>
-      <c r="Q108" s="63"/>
-      <c r="R108" s="63"/>
-      <c r="S108" s="63"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="S108" s="43"/>
     </row>
     <row r="109" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O109" s="63"/>
-      <c r="P109" s="63"/>
-      <c r="Q109" s="63"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="63"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="S109" s="43"/>
     </row>
     <row r="110" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O110" s="63"/>
-      <c r="P110" s="63"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="63"/>
-      <c r="S110" s="63"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+      <c r="S110" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="N18:O18"/>
@@ -17921,9 +18097,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:DE/explorer/revenue_proj" xr:uid="{F6CF092C-941B-CD4F-AB3D-2CC56A995BBD}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:DE/explorer/revenue_proj" xr:uid="{C0B6AD25-543C-4E4A-B025-194BD837CF8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials/John Deere.xlsx
+++ b/Industrials/John Deere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5873C-F3AD-2347-9F9A-7B99C69B058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DA32D-944F-2F4A-829A-38B4FF218BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1724,8 +1724,11 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1767,11 +1770,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1789,7 +1795,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1801,6 +1807,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1928,11 +1937,11 @@
     <v>Powered by Refinitiv</v>
     <v>450</v>
     <v>345.55</v>
-    <v>1.0248999999999999</v>
-    <v>3.92</v>
-    <v>1.0888E-2</v>
-    <v>0.91</v>
-    <v>2.5000000000000001E-3</v>
+    <v>1.0579000000000001</v>
+    <v>2.4500000000000002</v>
+    <v>6.783E-3</v>
+    <v>0.24</v>
+    <v>6.5989999999999994E-4</v>
     <v>USD</v>
     <v>Deere &amp; Company is engaged in the delivery of agricultural, construction, and forestry equipment. The Company's Production &amp; precision agriculture segment develops and delivers global equipment and technology solutions to growers of large grains, small grains, cotton, and sugarcane. The Small agriculture &amp; turf segment develops and delivers global equipment and technology solutions to dairy and livestock producers, high-value crop producers, and turf and utility customers. The Construction and Forestry segment develops and delivers a range of machines and technology solutions organized along the earthmoving, forestry, and roadbuilding production systems. The Financial Services segment finances sales and leases by John Deere dealers of new and used production and precision agriculture equipment, small agriculture and turf equipment and construction and forestry equipment. Its technology-enabled products include John Deere Autonomous 8R Tractor, See &amp; Spray and E-Power Backhoe.</v>
     <v>82200</v>
@@ -1940,25 +1949,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One John Deere Place, MOLINE, IL, 61265-8098 US</v>
-    <v>368.36</v>
+    <v>364.17</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45259.910658969529</v>
+    <v>45269.040043749999</v>
     <v>0</v>
-    <v>359.65</v>
-    <v>104814938364</v>
+    <v>360.87</v>
+    <v>104737178202</v>
     <v>DEERE &amp; COMPANY</v>
     <v>DEERE &amp; COMPANY</v>
-    <v>362.74</v>
-    <v>10.504</v>
-    <v>360.02</v>
-    <v>363.94</v>
-    <v>364.85</v>
+    <v>361.8</v>
+    <v>10.4255</v>
+    <v>361.22</v>
+    <v>363.67</v>
+    <v>363.91</v>
     <v>288000600</v>
     <v>DE</v>
     <v>DEERE &amp; COMPANY (XNYS:DE)</v>
-    <v>2263455</v>
-    <v>1630858</v>
+    <v>2060489</v>
+    <v>1915299</v>
     <v>1958</v>
   </rv>
   <rv s="2">
@@ -15886,7 +15895,7 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15903,7 +15912,7 @@
     <row r="3" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>104814938364</v>
+        <v>104737178202</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>237</v>
@@ -15931,14 +15940,14 @@
       </c>
       <c r="I3" s="57">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>156860024435.88245</v>
+        <v>155530462837.27353</v>
       </c>
       <c r="J3" s="58" t="s">
         <v>203</v>
       </c>
       <c r="K3" s="59">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.3423659088686271E-2</v>
+        <v>1.3433625233691208E-2</v>
       </c>
       <c r="L3" s="60" t="s">
         <v>247</v>
@@ -15986,14 +15995,14 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>141566964735.11484</v>
+        <v>140363012766.51682</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="47" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.0888E-2</v>
+        <v>6.783E-3</v>
       </c>
       <c r="L4" s="66" t="s">
         <v>248</v>
@@ -16041,14 +16050,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>87120964735.114838</v>
+        <v>85917012766.516815</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="68" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>363.94</v>
+        <v>363.67</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>221</v>
@@ -16071,7 +16080,7 @@
     <row r="6" spans="1:21" s="44" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72">
         <f>O20/F10</f>
-        <v>1.8908400837768116</v>
+        <v>1.8894373063337724</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>242</v>
@@ -16099,14 +16108,14 @@
       </c>
       <c r="I6" s="47">
         <f>N25</f>
-        <v>7.0720379705487474E-2</v>
+        <v>7.1153965948935069E-2</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>205</v>
       </c>
       <c r="K6" s="73">
         <f>I5/G4</f>
-        <v>329.41971344152859</v>
+        <v>324.8673589801337</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>212</v>
@@ -16129,14 +16138,14 @@
     <row r="7" spans="1:21" s="43" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>10.530989486988847</v>
+        <v>10.523176750929368</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="77">
         <f>F15/A3</f>
-        <v>6.5315117356891411E-2</v>
+        <v>6.536360934601991E-2</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>250</v>
@@ -16163,7 +16172,7 @@
       </c>
       <c r="K7" s="83">
         <f>K6/K5-1</f>
-        <v>-9.4851586960684187E-2</v>
+        <v>-0.10669739329575245</v>
       </c>
       <c r="L7" s="84" t="s">
         <v>215</v>
@@ -16490,7 +16499,7 @@
       </c>
       <c r="O14" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -16651,7 +16660,7 @@
       </c>
       <c r="O17" s="112">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -16744,7 +16753,7 @@
       </c>
       <c r="O20" s="118">
         <f>A3</f>
-        <v>104814938364</v>
+        <v>104737178202</v>
       </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
@@ -16754,17 +16763,17 @@
       <c r="U20" s="43"/>
     </row>
     <row r="21" spans="1:21" s="46" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131" t="str" cm="1">
+      <c r="A21" s="132" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1958</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -16778,7 +16787,7 @@
       </c>
       <c r="O21" s="118">
         <f>O19+O20</f>
-        <v>166677938364</v>
+        <v>166600178202</v>
       </c>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
@@ -16809,7 +16818,7 @@
       </c>
       <c r="O22" s="120">
         <f>(O19/O21)</f>
-        <v>0.37115289886115788</v>
+        <v>0.37132613342701304</v>
       </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -16837,7 +16846,7 @@
       </c>
       <c r="O23" s="121">
         <f>O20/O21</f>
-        <v>0.62884710113884212</v>
+        <v>0.62867386657298696</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -16887,7 +16896,7 @@
       <c r="M25" s="45"/>
       <c r="N25" s="122">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.0720379705487474E-2</v>
+        <v>7.1153965948935069E-2</v>
       </c>
       <c r="O25" s="123"/>
       <c r="P25" s="43"/>
@@ -18097,9 +18106,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:DE/explorer/revenue_proj" xr:uid="{C0B6AD25-543C-4E4A-B025-194BD837CF8C}"/>
